--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1659198.634204922</v>
+        <v>1729961.347989921</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6718748.809581514</v>
+        <v>7104456.909958437</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>30.49859044677672</v>
       </c>
       <c r="G2" t="n">
-        <v>91.14189756875091</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>103.8171286208079</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>2.896646562582978</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1215946474468</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>101.3561475855706</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>106.4996628416748</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>152.049380626589</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,16 +1350,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.3718273813051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1375,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>20.60230783658119</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1421,19 +1423,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>161.6737988100371</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.093968497073</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>74.37409663181585</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1816,19 +1818,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>165.7104322459758</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864465</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9033151206113</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2138,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642052533</v>
       </c>
       <c r="C22" t="n">
-        <v>91.02068200355116</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.6013629915557</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>3.33176001090012</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2804,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>35.98388986946601</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.6576790987766</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,10 +3435,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722904483</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3475,22 +3477,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>240.905954296356</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.3190970511842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>71.04375511693026</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>232.6781960474231</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>6.563431533544704</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3800,13 +3802,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>19.64740624208219</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>128.2488759891333</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>26.99670464250725</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.056558167144</v>
+        <v>168.7534004685696</v>
       </c>
       <c r="C2" t="n">
-        <v>1297.196232220848</v>
+        <v>145.8930745222738</v>
       </c>
       <c r="D2" t="n">
-        <v>1277.944015446252</v>
+        <v>126.6408577476781</v>
       </c>
       <c r="E2" t="n">
-        <v>851.9670755941098</v>
+        <v>104.7043219359397</v>
       </c>
       <c r="F2" t="n">
-        <v>426.84289378351</v>
+        <v>73.89766491899354</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="M2" t="n">
-        <v>36.91199246082674</v>
+        <v>977.2289161310154</v>
       </c>
       <c r="N2" t="n">
-        <v>358.3859952497895</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1351.458990130058</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>993.9695752563071</v>
       </c>
       <c r="W2" t="n">
-        <v>1344.840979214824</v>
+        <v>597.5782255566539</v>
       </c>
       <c r="X2" t="n">
-        <v>1337.161384422975</v>
+        <v>589.8986307648053</v>
       </c>
       <c r="Y2" t="n">
-        <v>1335.86451841827</v>
+        <v>184.5613607196956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000785</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>690.7995680049638</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>518.8270048838798</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>518.8270048838798</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1799.725677711293</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1385.086614473545</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>1110.234210646058</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>1107.308305027287</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.9655367170294</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1158.419888549665</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>1135.559562603369</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D5" t="n">
-        <v>1116.307345828773</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>690.3304059766309</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>669.2466282064352</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1175.524714805496</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1174.227848800791</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050605</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>1229.627938107791</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.627938107791</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1686.413844810522</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549.1137459742962</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>446.7337989181643</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>446.7337989181643</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.241513747949</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1066.530046355978</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>791.6776425284911</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>549.1137459742962</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.1137459742962</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.189564997102</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1240.329239050806</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>1221.07702227621</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>795.1000824240679</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>369.9759006134681</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>856.3013579804531</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>856.3013579804531</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1692.014390085186</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1692.014390085186</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.014390085186</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1684.334795293337</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.037929288632</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484409</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>393.2225928484409</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>393.2225928484409</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511718</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.7993046517582</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>474.7993046517582</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>474.7993046517582</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>474.7993046517582</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.940779286676</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>870.229311894705</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>595.376908067218</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>595.376908067218</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.7993046517582</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1682.423885709487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1255.523155722787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1255.523155722787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2229.072890214134</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3126.065481031253</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3126.065481031253</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3126.065481031253</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3519.845194023118</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3261.49028461953</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2904.00086974578</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2507.609520046127</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2507.609520046127</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2102.272250001017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>670.4158192932509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>902.1599794416869</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1799.152570258806</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>1799.152570258806</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.665372287236</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>983.6928091661524</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D13" t="n">
-        <v>820.3760362929231</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1678304457766</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F13" t="n">
-        <v>482.306056220337</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145692</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.897277176128</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2089.590409691242</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.590409691242</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.738005863755</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1572.17410930956</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.831340999302</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299954</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>969.4768405801188</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1056.239633142215</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>1953.232223959335</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2798.376874110147</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268074</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3522.097368455964</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3301.171797500597</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3301.171797500597</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3301.171797500597</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3301.171797500597</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3301.171797500597</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2895.834527455488</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>351.6283820045024</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>902.1599794416869</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>1799.152570258806</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1799.152570258806</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.293180578924</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>654.1678304457766</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>654.1678304457766</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>654.1678304457766</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>482.306056220337</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.19982010864</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.488352716669</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>955.6359488891819</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>955.6359488891819</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>729.293180578924</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,19 +5518,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5543,19 +5545,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5592,22 +5594,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>1801.283937336665</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3682.614429408222</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>3682.614429408222</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>3682.614429408222</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E19" t="n">
-        <v>3516.406223561076</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F19" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>5068.0970569786</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>4787.912608478905</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>4506.201141086934</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>4231.348737259446</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>4099.123166430546</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>3872.780398120288</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4798.855966881186</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,10 +5788,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3113489363686</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>305.3113489363686</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3937.871285113321</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976527</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578191</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.677127506126</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025261</v>
       </c>
       <c r="T22" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251161</v>
       </c>
       <c r="U22" t="n">
-        <v>4871.796322517327</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="V22" t="n">
-        <v>4871.796322517327</v>
+        <v>1260.306816359494</v>
       </c>
       <c r="W22" t="n">
-        <v>4596.94391868984</v>
+        <v>985.4544125320074</v>
       </c>
       <c r="X22" t="n">
-        <v>4354.380022135645</v>
+        <v>742.8905159778125</v>
       </c>
       <c r="Y22" t="n">
-        <v>4128.037253825387</v>
+        <v>516.5477476675545</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>305.3113489363686</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>305.3113489363686</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>747.5965237391339</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1673.781211614463</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.928807786976</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1156.364911232781</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>930.0221429225235</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>540.1900255967601</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>540.1900255967601</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>540.1900255967601</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2279.350326666533</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2036.010978892432</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.826530392737</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.115063000766</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1199.262659173279</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>956.6987626190837</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>730.3559943088258</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883229</v>
       </c>
       <c r="H29" t="n">
         <v>137.1995846623573</v>
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6506,7 +6508,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6552,16 +6554,16 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8809303238178</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>741.8809303238178</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2199.329764001619</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1955.990416227519</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1675.805967727823</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1675.805967727823</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.953563900336</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1158.389667346141</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>932.0468990358834</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.2543031032136</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>847.2543031032136</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9375302299843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6895,13 +6897,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1260.306816359498</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1260.306816359498</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1037.420271815279</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6938,16 +6940,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1852.677416841655</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2856.963518260713</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
         <v>3833.214576747414</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1828.971033901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778193</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>742.8905159778193</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>579.57374310459</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>413.3655372574435</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>413.3655372574435</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7123,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V37" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W37" t="n">
-        <v>1540.491264859194</v>
+        <v>985.4544125320142</v>
       </c>
       <c r="X37" t="n">
-        <v>1297.927368304999</v>
+        <v>742.8905159778193</v>
       </c>
       <c r="Y37" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778193</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7153,46 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>1748.774177950213</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.774177950213</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>1748.774177950213</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1748.774177950213</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>750.4259316760281</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>750.4259316760281</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X40" t="n">
-        <v>750.4259316760281</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y40" t="n">
-        <v>750.4259316760281</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.408451049204</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.507721062504</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>930.2151002475041</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>504.2381603953617</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>79.11397858476187</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>79.11397858476187</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>79.11397858476187</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1684.985148555618</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2581.977739372737</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3478.970330189857</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3478.970330189857</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3365.85757874639</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3008.368163872639</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2611.976814172986</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2200.256815340734</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2200.256815340734</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>79.93089272491137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>79.93089272491137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>79.93089272491137</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>79.93089272491137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>976.9234835420307</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1866.404761553502</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1866.404761553502</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1866.404761553502</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>826.0916297082392</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>654.1190665871552</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D43" t="n">
-        <v>654.1190665871552</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E43" t="n">
-        <v>487.9108607400087</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="F43" t="n">
-        <v>316.0490865145692</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145692</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.488352716669</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>955.6359488891819</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>826.0916297082392</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>826.0916297082392</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1375.071181004094</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>948.1704510173943</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>524.8778302023945</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>524.8778302023945</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>99.75364839179474</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>99.75364839179474</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>1684.985148555618</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>2581.977739372737</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.977739372737</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>3427.122389523549</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3427.122389523549</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3365.85757874639</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3008.368163872639</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2611.976814172986</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2200.256815340734</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1794.919545295624</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2382.648348600922</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>2265.142445118427</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>2161.302486633712</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>2056.60055290665</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>1962.954722589554</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>1868.900950807158</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>1815.524857569467</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>1822.971500531379</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>1822.971500531379</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>1822.971500531379</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>2361.849984163997</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>2361.849984163997</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>2361.849984163997</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>2361.849984163997</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>3078.047701202495</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>3542.193178065274</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>3542.888240711231</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>3401.00830500891</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>3216.240108928546</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>3011.266970067813</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>2814.74559290103</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>2651.268246667693</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>2511.575358020985</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.665372287236</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>983.6928091661524</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>820.3760362929231</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>654.1678304457766</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>482.306056220337</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2089.590409691242</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>2089.590409691242</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>2089.590409691242</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>2089.590409691242</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>1814.738005863755</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>1572.17410930956</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>1345.831340999302</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>501.661421077482</v>
       </c>
       <c r="N2" t="n">
-        <v>362.0008377727922</v>
+        <v>521.056313988414</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>457.7507104621139</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>131.7781250670415</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.64032950871605</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.95688127998122</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>457.1346235160602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>182.5645565894896</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8374,13 +8376,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>457.4303624918456</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>100.3451612536478</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8620,13 +8622,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>378.1798648033541</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719403</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>420.5596970660337</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>256.600096965175</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498223</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8784,10 +8786,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701172</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>125.0704473055896</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8945,10 +8947,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>578.6076093780523</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498223</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9249,7 +9251,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>133.9113326837148</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,7 +9260,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,13 +9415,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.8553498857486</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,25 +9485,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9729,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10133,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,7 +10202,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10586,19 +10588,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>921.9548738586921</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>736.7071336234585</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10902,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7539634924349</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
-        <v>65.54083966701687</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11142,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510359</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>38.58920100021192</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>116.4618097000779</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>566.8367873532374</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23261,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>401.1148626170398</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.229652688517959</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>95.8787408580573</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>75.19552205038323</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>109.2349424680416</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.0089626044197</v>
       </c>
       <c r="C22" t="n">
-        <v>79.23215548632199</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.662946033389318</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24379,7 +24381,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>165.1019369951564</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>132.4498071365905</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.421661528378735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.77139277966535</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.7602435759712</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>7.460061541229834</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>27.9844710104188</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.495750241103</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>111.8893815995197</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.8929900981983</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>53.3281253757179</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>592310.6545627528</v>
+        <v>593917.027479128</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>592310.6545627528</v>
+        <v>599118.1105673744</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>592310.6545627528</v>
+        <v>599118.1105673744</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493026.8111755826</v>
+        <v>620090.9166880271</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493026.8111755825</v>
+        <v>620090.9166880272</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620090.9166880272</v>
+        <v>620090.9166880271</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620090.9166880272</v>
+        <v>620090.9166880271</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620090.9166880271</v>
+        <v>620090.9166880272</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493026.8111755825</v>
+        <v>620090.9166880272</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493026.8111755825</v>
+        <v>620090.9166880272</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092095</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092093</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>368683.8431932277</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="F2" t="n">
-        <v>368683.8431932278</v>
+        <v>463675.082588394</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="I2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="L2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="M2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="N2" t="n">
+        <v>463675.0825883937</v>
+      </c>
+      <c r="O2" t="n">
         <v>463675.0825883939</v>
       </c>
-      <c r="O2" t="n">
-        <v>368683.8431932277</v>
-      </c>
       <c r="P2" t="n">
-        <v>368683.8431932277</v>
+        <v>463675.0825883938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701981</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214761.4484639727</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="F4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458318</v>
@@ -26442,7 +26444,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
         <v>101012.8540458319</v>
@@ -26451,13 +26453,13 @@
         <v>101012.8540458319</v>
       </c>
       <c r="N4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="O4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49447.3177568879</v>
+        <v>44102.65857093176</v>
       </c>
       <c r="C6" t="n">
-        <v>204073.0383750085</v>
+        <v>189795.7244088275</v>
       </c>
       <c r="D6" t="n">
-        <v>204073.0383750082</v>
+        <v>213202.5580824398</v>
       </c>
       <c r="E6" t="n">
-        <v>100554.2858957673</v>
+        <v>69172.80979749166</v>
       </c>
       <c r="F6" t="n">
-        <v>233317.9539053693</v>
+        <v>284912.1663541325</v>
       </c>
       <c r="G6" t="n">
-        <v>182752.2462598227</v>
+        <v>284912.1663541324</v>
       </c>
       <c r="H6" t="n">
         <v>284912.1663541324</v>
       </c>
       <c r="I6" t="n">
+        <v>284912.1663541323</v>
+      </c>
+      <c r="J6" t="n">
+        <v>158334.8977738434</v>
+      </c>
+      <c r="K6" t="n">
+        <v>266265.5659971125</v>
+      </c>
+      <c r="L6" t="n">
         <v>284912.1663541324</v>
       </c>
-      <c r="J6" t="n">
-        <v>164189.6494113753</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>104848.2948989646</v>
+      </c>
+      <c r="N6" t="n">
         <v>284912.1663541322</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>284912.1663541325</v>
+      </c>
+      <c r="P6" t="n">
         <v>284912.1663541322</v>
-      </c>
-      <c r="M6" t="n">
-        <v>174102.8062449991</v>
-      </c>
-      <c r="N6" t="n">
-        <v>284912.1663541323</v>
-      </c>
-      <c r="O6" t="n">
-        <v>233317.9539053693</v>
-      </c>
-      <c r="P6" t="n">
-        <v>233317.9539053692</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>390.374349545717</v>
       </c>
       <c r="G2" t="n">
-        <v>309.1537742176949</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>173.5654753938908</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>237.2416110260699</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>69.17407713899905</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27679,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>68.89668990430255</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27786,7 +27788,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>134.4062914546842</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>103.7219796829628</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.7075132458502</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.009733748611227e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>464.2301581780502</v>
       </c>
       <c r="N2" t="n">
-        <v>324.7212149383462</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>435.2356237478844</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>108.6062353448193</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.1411420102916</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.33731851519627</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8550006816142</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>160.7937153846609</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35096,13 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>419.8550006816143</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>77.94592742031445</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35340,13 +35342,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>357.4309638277537</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>384.4350224614357</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>234.0850102509454</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374943</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>87.63918440615782</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35665,10 +35667,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>556.0925226638227</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35969,7 +35971,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>110.8145521713869</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,13 +36135,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.7306752811506</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366132</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36853,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>898.8580933463641</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>699.4275107890124</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.00692520345643</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
-        <v>27.96547785678557</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>14.91628160606777</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.33713509547981</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>544.3217006390078</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1729961.347989921</v>
+        <v>1729264.686784829</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114756</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7104456.909958437</v>
+        <v>7104456.909958438</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>30.49859044677672</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>219.3115314888472</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>40.08027604501085</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208079</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -907,16 +907,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>35.82015822408135</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416748</v>
+        <v>143.7662436534516</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>127.6300872882253</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1423,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.60112162899995</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,16 +1584,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>128.0402379743624</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1818,19 +1818,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459758</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>2.127094946099862</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1858,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864465</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396352</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>157.5250521214309</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056416</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642052533</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2298,10 +2298,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>180.5155861311221</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>41.58291467757405</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>102.6315062697649</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>128.8897627160344</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>67.90023389519561</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3246,13 +3246,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3268,10 +3268,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>144.4880612633646</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.680523408809342e-12</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722904483</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296356</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693026</v>
+        <v>110.4498977196067</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3681,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868323</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026576</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624208219</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>189.021651725907</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>251.4939981512451</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685696</v>
+        <v>563.0709252622232</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222738</v>
+        <v>540.2105993159274</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476781</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359397</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899354</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884623</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884623</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231744</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347456</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347456</v>
+        <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>977.2289161310154</v>
+        <v>401.305594109213</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373444</v>
+        <v>403.5871017449294</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373444</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615872</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615872</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
         <v>1830.739470489012</v>
@@ -4363,19 +4363,19 @@
         <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130058</v>
+        <v>1388.287100049961</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563071</v>
+        <v>1388.287100049961</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566539</v>
+        <v>991.8957503503077</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648053</v>
+        <v>580.1757515180549</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196956</v>
+        <v>578.8788855133492</v>
       </c>
     </row>
     <row r="3">
@@ -4391,40 +4391,40 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000785</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422928</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762487</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="P3" t="n">
         <v>1383.244289010048</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>824.1876161665166</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
         <v>620.3857159750945</v>
@@ -4485,55 +4485,55 @@
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453209</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.10663437511</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615872</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841772</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1483.260249743035</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1483.260249743035</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1240.69635318884</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>1014.353584878582</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>1369.185697387592</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>945.8930765725927</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>519.9161367204503</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,25 +4570,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4609,10 +4609,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
+        <v>51.94486801115937</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51.94486801115937</v>
+      </c>
+      <c r="N6" t="n">
         <v>602.6104029955975</v>
       </c>
-      <c r="M6" t="n">
-        <v>602.6104029955975</v>
-      </c>
-      <c r="N6" t="n">
-        <v>838.3748437825398</v>
-      </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>1862.519163735905</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>1582.33471523621</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2095.99197237326</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2095.99197237326</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5071,7 +5071,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675582</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675582</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675582</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675582</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421186</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421186</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502729</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,25 +5281,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5314,7 +5314,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
         <v>3777.607131232208</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
         <v>345.8675501573982</v>
@@ -5436,52 +5436,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299903</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>1258.158235605865</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>1031.815467295608</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5554,10 +5554,10 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464741</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993277</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1033.268477064743</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5919,43 +5919,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100492</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976527</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656291</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578191</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818953</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506126</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025261</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251161</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751466</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359494</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320074</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778125</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675545</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="23">
@@ -5992,13 +5992,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
         <v>1828.971033901635</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2193.674183387368</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1913.489734887673</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1631.778267495702</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1356.925863668215</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1114.36196711402</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>888.0191988037618</v>
       </c>
     </row>
     <row r="26">
@@ -6232,22 +6232,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883229</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6499,13 +6499,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6657,16 +6657,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>1087.861724926551</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>915.889161805467</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>752.5723889322377</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1087.861724926551</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>456.2068044646703</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1446.844867123559</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778193</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778193</v>
+        <v>509.1843230306292</v>
       </c>
       <c r="D37" t="n">
-        <v>579.57374310459</v>
+        <v>345.8675501573999</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574435</v>
+        <v>345.8675501573999</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574435</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251168</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751472</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359501</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4544125320142</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778193</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778193</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="38">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>1033.96404804924</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
         <v>2113.800768076616</v>
@@ -7420,16 +7420,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O42" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618956</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886663</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886663</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2044.74616616683</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>2044.74616616683</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1763.034698774859</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>1488.182294947372</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>1245.618398393177</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>1019.275630082919</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,13 +7636,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7651,25 +7651,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7684,13 +7684,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>750.5367205716725</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1458.11898966542</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1183.266585837933</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>940.7026892837382</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>940.7026892837382</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487773</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>501.661421077482</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.056313988414</v>
+        <v>39.5841760018364</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
         <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,16 +8066,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662959</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670415</v>
+        <v>413.7418950079537</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8148,10 +8148,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>173.2483363398619</v>
       </c>
       <c r="O4" t="n">
-        <v>94.64032950871605</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>177.0689530252722</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8467,13 +8467,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8531,19 +8531,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>267.0107895760206</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8555,7 +8555,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>761.2286940029222</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>191.0009748683791</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9485,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>566.8367873532371</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,16 +9640,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9716,13 +9716,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>593.7166556079103</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,13 +9731,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9880,25 +9880,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>744.2217369616194</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>693.8194039897608</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10351,16 +10351,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>386.8988393430025</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>382.6486756511529</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948126836</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>144.0636418148497</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038323</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>238.011162642553</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>7.02107166724403</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0089626044197</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>98.37876658692932</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>199.3230396187849</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>121.4478343573904</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>111.2484948726186</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>96.64588989347936</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>25.7647762265085</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>97.77139277966535</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2205539080147</v>
+        <v>77.8144113053383</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>150.495750241103</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>51.88430257045204</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>27.4003545668063</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620090.9166880271</v>
+        <v>620090.9166880272</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620090.9166880272</v>
+        <v>620090.9166880273</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620090.9166880271</v>
+        <v>620090.9166880272</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620090.9166880271</v>
+        <v>620090.9166880272</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620090.9166880272</v>
+        <v>620090.9166880271</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="C2" t="n">
         <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="E2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="F2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="G2" t="n">
         <v>463675.0825883938</v>
       </c>
-      <c r="F2" t="n">
-        <v>463675.082588394</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>463675.0825883936</v>
+      </c>
+      <c r="I2" t="n">
         <v>463675.0825883939</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>463675.0825883937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>463675.0825883938</v>
+      </c>
+      <c r="L2" t="n">
+        <v>463675.0825883937</v>
+      </c>
+      <c r="M2" t="n">
         <v>463675.0825883939</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>463675.0825883938</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>463675.0825883938</v>
-      </c>
-      <c r="K2" t="n">
-        <v>463675.0825883939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463675.0825883938</v>
-      </c>
-      <c r="M2" t="n">
-        <v>463675.0825883938</v>
-      </c>
-      <c r="N2" t="n">
-        <v>463675.0825883937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>463675.0825883939</v>
       </c>
       <c r="P2" t="n">
         <v>463675.0825883938</v>
@@ -26368,7 +26368,7 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361224</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701981</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="F4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458318</v>
@@ -26438,7 +26438,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
         <v>101012.8540458319</v>
@@ -26447,10 +26447,10 @@
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458318</v>
@@ -26459,7 +26459,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44102.65857093176</v>
+        <v>44102.65857093164</v>
       </c>
       <c r="C6" t="n">
-        <v>189795.7244088275</v>
+        <v>189795.7244088274</v>
       </c>
       <c r="D6" t="n">
-        <v>213202.5580824398</v>
+        <v>213202.5580824397</v>
       </c>
       <c r="E6" t="n">
-        <v>69172.80979749166</v>
+        <v>69121.77913530752</v>
       </c>
       <c r="F6" t="n">
-        <v>284912.1663541325</v>
+        <v>284861.135691948</v>
       </c>
       <c r="G6" t="n">
-        <v>284912.1663541324</v>
+        <v>284861.135691948</v>
       </c>
       <c r="H6" t="n">
-        <v>284912.1663541324</v>
+        <v>284861.1356919479</v>
       </c>
       <c r="I6" t="n">
-        <v>284912.1663541323</v>
+        <v>284861.135691948</v>
       </c>
       <c r="J6" t="n">
-        <v>158334.8977738434</v>
+        <v>158283.8671116591</v>
       </c>
       <c r="K6" t="n">
-        <v>266265.5659971125</v>
+        <v>266214.5353349281</v>
       </c>
       <c r="L6" t="n">
-        <v>284912.1663541324</v>
+        <v>284861.1356919479</v>
       </c>
       <c r="M6" t="n">
-        <v>104848.2948989646</v>
+        <v>104797.2642367805</v>
       </c>
       <c r="N6" t="n">
-        <v>284912.1663541322</v>
+        <v>284861.1356919479</v>
       </c>
       <c r="O6" t="n">
-        <v>284912.1663541325</v>
+        <v>284861.135691948</v>
       </c>
       <c r="P6" t="n">
-        <v>284912.1663541322</v>
+        <v>284861.1356919479</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>390.374349545717</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>36.45982882070464</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>130.1725614448623</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938908</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>385.0527817684124</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546842</v>
+        <v>97.13971064290743</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>128.1412730213265</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146997</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-5.009733748611227e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.680523408809342e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>464.2301581780502</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539679</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6062353448193</v>
+        <v>390.5700052857315</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34868,10 +34868,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>152.4994353642615</v>
       </c>
       <c r="O4" t="n">
-        <v>72.1411420102916</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>238.1458997847902</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P8" t="n">
-        <v>415.010189472638</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35275,7 +35275,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>738.7136072886926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112745</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>167.9041943560511</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36287,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.1371666366132</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36360,16 +36360,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>571.2015688936807</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36600,25 +36600,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>706.646375151388</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37071,16 +37071,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>357.478879857416</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
